--- a/vertx-pin/zero-ambient/src/main/resources/workflow/workflow-ambient.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/workflow/workflow-ambient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/ox-engine/ox-driver/ix-xc/src/main/resources/init/oob/zero/workflow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/workflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8315BD1-D10D-2748-97ED-C2FDD057BC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42693A0E-7D8F-9943-ADA6-FA238987A55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68040" yWindow="2880" windowWidth="61280" windowHeight="16220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-APP" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>key</t>
   </si>
@@ -185,6 +185,30 @@
   </si>
   <si>
     <t>JSON:workflow/process.file.management/component.generate.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.file.management/component.ui.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiAssist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面辅助配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.file.management/component.assist.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +357,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,9 +364,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,11 +399,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,28 +722,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71967B7B-87F9-4846-9FA6-1A2C9E90AB57}">
   <dimension ref="A4:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="52.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="68.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="79.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="63.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="79.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="52.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="79.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="79.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="77.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:16">
@@ -731,152 +753,168 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="3"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:16" s="6" customFormat="1">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:16" s="6" customFormat="1">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="15"/>
+      <c r="N7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="M9" s="19"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C4:O4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-ambient/src/main/resources/workflow/workflow-ambient.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/workflow/workflow-ambient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/workflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42693A0E-7D8F-9943-ADA6-FA238987A55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6792D950-DA05-134F-B915-153EA9312320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -208,7 +208,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSON:workflow/process.file.management/component.assist.json</t>
+    <t>JSON:workflow/process.file.management/component.ui.assist.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,14 +398,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +723,7 @@
   <dimension ref="A4:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -753,21 +753,21 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:16" s="6" customFormat="1">
       <c r="A5" s="4" t="s">
@@ -899,10 +899,10 @@
       <c r="M7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="19" t="s">
         <v>44</v>
       </c>
     </row>

--- a/vertx-pin/zero-ambient/src/main/resources/workflow/workflow-ambient.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/workflow/workflow-ambient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/workflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6792D950-DA05-134F-B915-153EA9312320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92566AE2-B119-5F4A-8628-19AD808AFB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>key</t>
   </si>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSON:workflow/process.file.management/component.ui.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uiAssist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,7 +204,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSON:workflow/process.file.management/component.ui.assist.json</t>
+    <t>JSON:workflow/process.file.management/ui.config.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.file.management/ui.assist.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:workflow/process.file.management/ui.linkage.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiLinkage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面关联配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71967B7B-87F9-4846-9FA6-1A2C9E90AB57}">
   <dimension ref="A4:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -741,8 +753,8 @@
     <col min="11" max="11" width="79.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="63.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="79.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="77.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="70.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -768,6 +780,7 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16" s="6" customFormat="1">
       <c r="A5" s="4" t="s">
@@ -810,10 +823,13 @@
         <v>17</v>
       </c>
       <c r="N5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>43</v>
+      <c r="P5" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1">
@@ -860,7 +876,10 @@
         <v>39</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -900,10 +919,13 @@
         <v>35</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O7" s="19" t="s">
         <v>44</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -914,7 +936,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C4:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
